--- a/obitos.xlsx
+++ b/obitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\Doutorado\LAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD30B36E-D5EF-4CC1-8A67-79CA37A41C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74468EC2-41A5-4C99-8C26-5DF54370F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CE1825EB-FC06-4709-8A0C-61E7536B53EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>mes</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>dez</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -455,15 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F24017-7111-4E2E-BA0D-D15C846D37E3}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +477,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2023</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -479,7 +488,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -487,7 +499,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -495,7 +510,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -503,7 +521,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023</v>
+      </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -511,7 +532,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2023</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -519,7 +543,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -527,7 +554,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -535,7 +565,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2023</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -543,7 +576,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2023</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -551,7 +587,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -559,7 +598,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
